--- a/vyz/hse/tables/moscow/Кинопроизводство.xlsx
+++ b/vyz/hse/tables/moscow/Кинопроизводство.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>Образовательная программа "Кинопроизводство"</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество платных мест:</t>
   </si>
   <si>
-    <t>Время формирования: 19.07.2022 15:00:33</t>
+    <t>Время формирования: 26.07.2022 15:05:35</t>
   </si>
   <si>
     <t>Результаты, зачтенные по Олимпиадам школьников</t>
@@ -307,18 +307,18 @@
     <t>20</t>
   </si>
   <si>
+    <t>193-121-402 35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>197-186-611 19</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>193-121-402 35</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -370,640 +370,652 @@
     <t>28</t>
   </si>
   <si>
+    <t>178-705-854 19</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>178-114-123 57</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>160-913-941 63</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>187-042-948 92</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>184-597-282 26</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>191-165-273 66</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>188-314-417 88</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>166-875-724 29</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>188-956-597 70</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>169-717-754 28</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>184-789-519 43</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>166-140-662 56</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>206-701-206 17</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>184-375-082 91</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>167-685-633 27</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>195-639-792 42</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>205-753-033 40</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>164-122-325 26</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>200-172-849 07</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>185-634-127 88</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>200-868-347 51</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>185-732-941 07</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>159-706-459 07</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>202-824-057 22</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>169-848-273 41</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>188-365-419 18</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>207-464-933 72</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>203-800-260 04</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>202-245-144 99</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>169-238-988 28</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>187-437-625 14</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>179-959-614 65</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>13099</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>180-015-038 11</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>180-836-929 99</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>180-873-881 07</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>181-036-549 50</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>187-975-781 67</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>159-355-699 18</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>188-088-761 33</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>209-499-896 32</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>192-101-089 29</t>
+  </si>
+  <si>
+    <t>194-045-293 75</t>
+  </si>
+  <si>
+    <t>171-946-931 02</t>
+  </si>
+  <si>
+    <t>200-520-088 82</t>
+  </si>
+  <si>
+    <t>177-189-434 16</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>187-840-211 98</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>186-226-429 85</t>
+  </si>
+  <si>
+    <t>168-824-821 14</t>
+  </si>
+  <si>
+    <t>152-148-675 57</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>151-541-302 20</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>182-044-673 57</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>195-659-440 31</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>157-618-225 85</t>
+  </si>
+  <si>
+    <t>196-314-382 88</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>207-196-337 63</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>186-952-033 09</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>169-795-875 68</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>185-018-715 72</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>159-276-796 26</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>206-636-109 46</t>
+  </si>
+  <si>
+    <t>162-901-829 65</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>197-674-336 36</t>
+  </si>
+  <si>
+    <t>198-170-602 97</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>156-880-540 00</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>167-807-784 21</t>
+  </si>
+  <si>
+    <t>188-940-201 08</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>180-699-419 11</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>191-933-612 90</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>187-460-667 11</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>188-319-593 22</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>17755657020</t>
+  </si>
+  <si>
+    <t>154-525-973 80</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>186-060-858 86</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>156-061-748 61</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>189-211-940 91</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>195-488-371 34</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>186-114-025 50</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>191-566-361 93</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>192-283-387 90</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>166-504-894 90</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>171-615-008 40</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>157-022-122 24</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>158-022-375 50</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>181-055-160 39</t>
+  </si>
+  <si>
+    <t>204-495-700 55</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>190-249-765 86</t>
+  </si>
+  <si>
     <t>186-082-322 77</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>178-705-854 19</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>178-114-123 57</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>160-913-941 63</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>187-042-948 92</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>184-597-282 26</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>191-165-273 66</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>188-314-417 88</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>166-875-724 29</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>188-956-597 70</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>169-717-754 28</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>184-789-519 43</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>166-140-662 56</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>206-701-206 17</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>184-375-082 91</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>167-685-633 27</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>195-639-792 42</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>205-753-033 40</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>164-122-325 26</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>200-172-849 07</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>185-634-127 88</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>200-868-347 51</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>185-732-941 07</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>159-706-459 07</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>202-824-057 22</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>169-848-273 41</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>188-365-419 18</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>207-464-933 72</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>203-800-260 04</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>180-015-038 11</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>169-238-988 28</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>187-437-625 14</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>179-959-614 65</t>
-  </si>
-  <si>
-    <t>13099</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>180-836-929 99</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>180-873-881 07</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>181-036-549 50</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>187-975-781 67</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>159-355-699 18</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>188-088-761 33</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>209-499-896 32</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>192-101-089 29</t>
-  </si>
-  <si>
-    <t>194-045-293 75</t>
-  </si>
-  <si>
-    <t>171-946-931 02</t>
-  </si>
-  <si>
-    <t>200-520-088 82</t>
-  </si>
-  <si>
-    <t>177-189-434 16</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>187-840-211 98</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>186-226-429 85</t>
-  </si>
-  <si>
-    <t>168-824-821 14</t>
-  </si>
-  <si>
-    <t>152-148-675 57</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>157-618-225 85</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>151-541-302 20</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>182-044-673 57</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>195-659-440 31</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>196-314-382 88</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>207-196-337 63</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>186-952-033 09</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>169-795-875 68</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>185-018-715 72</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>159-276-796 26</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>206-636-109 46</t>
-  </si>
-  <si>
-    <t>162-901-829 65</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>197-674-336 36</t>
-  </si>
-  <si>
-    <t>198-170-602 97</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>156-880-540 00</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>167-807-784 21</t>
-  </si>
-  <si>
-    <t>188-940-201 08</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>191-933-612 90</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>187-460-667 11</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>188-319-593 22</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>17755657020</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>189-211-940 91</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>195-488-371 34</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>186-114-025 50</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>156-061-748 61</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>191-566-361 93</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>192-283-387 90</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>166-504-894 90</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>171-615-008 40</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>158-022-375 50</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>181-055-160 39</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>204-495-700 55</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>190-249-765 86</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>157-022-122 24</t>
+    <t>116</t>
   </si>
   <si>
     <t>190-433-249 54</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>215-785-621 85</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>198-502-159 96</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>186-060-858 86</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>168-544-794 20</t>
   </si>
   <si>
-    <t>118</t>
+    <t>121</t>
   </si>
   <si>
     <t>164-849-943 25</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>154-525-973 80</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1320,6 +1332,15 @@
     <xf numFmtId="0" fontId="3" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1339,7 +1360,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="BT137"/>
+  <dimension ref="BT139"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -3034,10 +3055,12 @@
         <v>67</v>
       </c>
       <c r="T37" s="27" t="e"/>
-      <c r="U37" s="31" t="e"/>
-      <c r="V37" s="32" t="e"/>
+      <c r="U37" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="33" t="e"/>
       <c r="W37" s="33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="X37" s="33" t="e"/>
       <c r="Y37" s="33" t="s">
@@ -3057,7 +3080,7 @@
       </c>
       <c r="AF37" s="33" t="e"/>
       <c r="AG37" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH37" s="33" t="e"/>
       <c r="AI37" s="33" t="s">
@@ -3067,11 +3090,11 @@
     </row>
     <row r="38" ht="13" customHeight="true" outlineLevel="1">
       <c r="A38" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="27" t="e"/>
       <c r="C38" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="28" t="e"/>
       <c r="E38" s="27" t="s">
@@ -3105,7 +3128,7 @@
       <c r="U38" s="31" t="e"/>
       <c r="V38" s="32" t="e"/>
       <c r="W38" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="X38" s="33" t="e"/>
       <c r="Y38" s="33" t="s">
@@ -3125,7 +3148,7 @@
       </c>
       <c r="AF38" s="33" t="e"/>
       <c r="AG38" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH38" s="33" t="e"/>
       <c r="AI38" s="33" t="s">
@@ -3575,11 +3598,11 @@
       <c r="O45" s="29" t="e"/>
       <c r="P45" s="30" t="e"/>
       <c r="Q45" s="27" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="R45" s="27" t="e"/>
       <c r="S45" s="27" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="T45" s="27" t="e"/>
       <c r="U45" s="33" t="s">
@@ -3617,11 +3640,11 @@
     </row>
     <row r="46" ht="13" customHeight="true" outlineLevel="1">
       <c r="A46" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="27" t="e"/>
       <c r="C46" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="28" t="e"/>
       <c r="E46" s="27" t="s">
@@ -3645,19 +3668,17 @@
       <c r="O46" s="29" t="e"/>
       <c r="P46" s="30" t="e"/>
       <c r="Q46" s="27" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="R46" s="27" t="e"/>
       <c r="S46" s="27" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="T46" s="27" t="e"/>
-      <c r="U46" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="V46" s="33" t="e"/>
+      <c r="U46" s="31" t="e"/>
+      <c r="V46" s="32" t="e"/>
       <c r="W46" s="33" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="X46" s="33" t="e"/>
       <c r="Y46" s="33" t="s">
@@ -3669,7 +3690,7 @@
       </c>
       <c r="AB46" s="33" t="e"/>
       <c r="AC46" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD46" s="33" t="e"/>
       <c r="AE46" s="33" t="s">
@@ -3687,11 +3708,11 @@
     </row>
     <row r="47" ht="13" customHeight="true" outlineLevel="1">
       <c r="A47" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="27" t="e"/>
       <c r="C47" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" s="28" t="e"/>
       <c r="E47" s="27" t="s">
@@ -3715,17 +3736,19 @@
       <c r="O47" s="29" t="e"/>
       <c r="P47" s="30" t="e"/>
       <c r="Q47" s="27" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R47" s="27" t="e"/>
       <c r="S47" s="27" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="T47" s="27" t="e"/>
-      <c r="U47" s="31" t="e"/>
-      <c r="V47" s="32" t="e"/>
+      <c r="U47" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" s="33" t="e"/>
       <c r="W47" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X47" s="33" t="e"/>
       <c r="Y47" s="33" t="s">
@@ -3737,7 +3760,7 @@
       </c>
       <c r="AB47" s="33" t="e"/>
       <c r="AC47" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD47" s="33" t="e"/>
       <c r="AE47" s="33" t="s">
@@ -3755,11 +3778,11 @@
     </row>
     <row r="48" ht="13" customHeight="true" outlineLevel="1">
       <c r="A48" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="27" t="e"/>
       <c r="C48" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="28" t="e"/>
       <c r="E48" s="27" t="s">
@@ -3783,19 +3806,19 @@
       <c r="O48" s="29" t="e"/>
       <c r="P48" s="30" t="e"/>
       <c r="Q48" s="27" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="R48" s="27" t="e"/>
       <c r="S48" s="27" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="T48" s="27" t="e"/>
       <c r="U48" s="33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V48" s="33" t="e"/>
       <c r="W48" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X48" s="33" t="e"/>
       <c r="Y48" s="33" t="s">
@@ -3825,11 +3848,11 @@
     </row>
     <row r="49" ht="13" customHeight="true" outlineLevel="1">
       <c r="A49" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="27" t="e"/>
       <c r="C49" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" s="28" t="e"/>
       <c r="E49" s="27" t="s">
@@ -3853,19 +3876,17 @@
       <c r="O49" s="29" t="e"/>
       <c r="P49" s="30" t="e"/>
       <c r="Q49" s="27" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="R49" s="27" t="e"/>
       <c r="S49" s="27" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="T49" s="27" t="e"/>
-      <c r="U49" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V49" s="33" t="e"/>
+      <c r="U49" s="31" t="e"/>
+      <c r="V49" s="32" t="e"/>
       <c r="W49" s="33" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="X49" s="33" t="e"/>
       <c r="Y49" s="33" t="s">
@@ -3895,11 +3916,11 @@
     </row>
     <row r="50" ht="13" customHeight="true" outlineLevel="1">
       <c r="A50" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B50" s="27" t="e"/>
       <c r="C50" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D50" s="28" t="e"/>
       <c r="E50" s="27" t="s">
@@ -3923,17 +3944,17 @@
       <c r="O50" s="29" t="e"/>
       <c r="P50" s="30" t="e"/>
       <c r="Q50" s="27" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="R50" s="27" t="e"/>
       <c r="S50" s="27" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="T50" s="27" t="e"/>
       <c r="U50" s="31" t="e"/>
       <c r="V50" s="32" t="e"/>
       <c r="W50" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X50" s="33" t="e"/>
       <c r="Y50" s="33" t="s">
@@ -3963,11 +3984,11 @@
     </row>
     <row r="51" ht="13" customHeight="true" outlineLevel="1">
       <c r="A51" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B51" s="27" t="e"/>
       <c r="C51" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" s="28" t="e"/>
       <c r="E51" s="27" t="s">
@@ -3995,13 +4016,15 @@
       </c>
       <c r="R51" s="27" t="e"/>
       <c r="S51" s="27" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="T51" s="27" t="e"/>
-      <c r="U51" s="31" t="e"/>
-      <c r="V51" s="32" t="e"/>
+      <c r="U51" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="33" t="e"/>
       <c r="W51" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X51" s="33" t="e"/>
       <c r="Y51" s="33" t="s">
@@ -4059,19 +4082,19 @@
       <c r="O52" s="29" t="e"/>
       <c r="P52" s="30" t="e"/>
       <c r="Q52" s="27" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="R52" s="27" t="e"/>
       <c r="S52" s="27" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="T52" s="27" t="e"/>
       <c r="U52" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V52" s="33" t="e"/>
       <c r="W52" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X52" s="33" t="e"/>
       <c r="Y52" s="33" t="s">
@@ -4091,7 +4114,7 @@
       </c>
       <c r="AF52" s="33" t="e"/>
       <c r="AG52" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH52" s="33" t="e"/>
       <c r="AI52" s="33" t="s">
@@ -4129,19 +4152,17 @@
       <c r="O53" s="29" t="e"/>
       <c r="P53" s="30" t="e"/>
       <c r="Q53" s="27" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="R53" s="27" t="e"/>
       <c r="S53" s="27" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="T53" s="27" t="e"/>
-      <c r="U53" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V53" s="33" t="e"/>
+      <c r="U53" s="31" t="e"/>
+      <c r="V53" s="32" t="e"/>
       <c r="W53" s="33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="X53" s="33" t="e"/>
       <c r="Y53" s="33" t="s">
@@ -4161,7 +4182,7 @@
       </c>
       <c r="AF53" s="33" t="e"/>
       <c r="AG53" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH53" s="33" t="e"/>
       <c r="AI53" s="33" t="s">
@@ -4171,11 +4192,11 @@
     </row>
     <row r="54" ht="13" customHeight="true" outlineLevel="1">
       <c r="A54" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="27" t="e"/>
       <c r="C54" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" s="28" t="e"/>
       <c r="E54" s="27" t="s">
@@ -4199,17 +4220,17 @@
       <c r="O54" s="29" t="e"/>
       <c r="P54" s="30" t="e"/>
       <c r="Q54" s="27" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="R54" s="27" t="e"/>
       <c r="S54" s="27" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="T54" s="27" t="e"/>
       <c r="U54" s="31" t="e"/>
       <c r="V54" s="32" t="e"/>
       <c r="W54" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X54" s="33" t="e"/>
       <c r="Y54" s="33" t="s">
@@ -4267,17 +4288,17 @@
       <c r="O55" s="29" t="e"/>
       <c r="P55" s="30" t="e"/>
       <c r="Q55" s="27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="R55" s="27" t="e"/>
       <c r="S55" s="27" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="T55" s="27" t="e"/>
       <c r="U55" s="31" t="e"/>
       <c r="V55" s="32" t="e"/>
       <c r="W55" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X55" s="33" t="e"/>
       <c r="Y55" s="33" t="s">
@@ -4307,11 +4328,11 @@
     </row>
     <row r="56" ht="13" customHeight="true" outlineLevel="1">
       <c r="A56" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="27" t="e"/>
       <c r="C56" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D56" s="28" t="e"/>
       <c r="E56" s="27" t="s">
@@ -4335,17 +4356,17 @@
       <c r="O56" s="29" t="e"/>
       <c r="P56" s="30" t="e"/>
       <c r="Q56" s="27" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="R56" s="27" t="e"/>
       <c r="S56" s="27" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="T56" s="27" t="e"/>
       <c r="U56" s="31" t="e"/>
       <c r="V56" s="32" t="e"/>
       <c r="W56" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X56" s="33" t="e"/>
       <c r="Y56" s="33" t="s">
@@ -4365,7 +4386,7 @@
       </c>
       <c r="AF56" s="33" t="e"/>
       <c r="AG56" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH56" s="33" t="e"/>
       <c r="AI56" s="33" t="s">
@@ -4375,11 +4396,11 @@
     </row>
     <row r="57" ht="13" customHeight="true" outlineLevel="1">
       <c r="A57" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="27" t="e"/>
       <c r="C57" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="28" t="e"/>
       <c r="E57" s="27" t="s">
@@ -4403,17 +4424,17 @@
       <c r="O57" s="29" t="e"/>
       <c r="P57" s="30" t="e"/>
       <c r="Q57" s="27" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="R57" s="27" t="e"/>
       <c r="S57" s="27" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="T57" s="27" t="e"/>
       <c r="U57" s="31" t="e"/>
       <c r="V57" s="32" t="e"/>
       <c r="W57" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X57" s="33" t="e"/>
       <c r="Y57" s="33" t="s">
@@ -4433,7 +4454,7 @@
       </c>
       <c r="AF57" s="33" t="e"/>
       <c r="AG57" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH57" s="33" t="e"/>
       <c r="AI57" s="33" t="s">
@@ -4443,11 +4464,11 @@
     </row>
     <row r="58" ht="13" customHeight="true" outlineLevel="1">
       <c r="A58" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="27" t="e"/>
       <c r="C58" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" s="28" t="e"/>
       <c r="E58" s="27" t="s">
@@ -4471,17 +4492,19 @@
       <c r="O58" s="29" t="e"/>
       <c r="P58" s="30" t="e"/>
       <c r="Q58" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R58" s="27" t="e"/>
       <c r="S58" s="27" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="T58" s="27" t="e"/>
-      <c r="U58" s="31" t="e"/>
-      <c r="V58" s="32" t="e"/>
+      <c r="U58" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V58" s="33" t="e"/>
       <c r="W58" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X58" s="33" t="e"/>
       <c r="Y58" s="33" t="s">
@@ -4539,19 +4562,17 @@
       <c r="O59" s="29" t="e"/>
       <c r="P59" s="30" t="e"/>
       <c r="Q59" s="27" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="R59" s="27" t="e"/>
       <c r="S59" s="27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T59" s="27" t="e"/>
-      <c r="U59" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V59" s="33" t="e"/>
+      <c r="U59" s="31" t="e"/>
+      <c r="V59" s="32" t="e"/>
       <c r="W59" s="33" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="X59" s="33" t="e"/>
       <c r="Y59" s="33" t="s">
@@ -4563,7 +4584,7 @@
       </c>
       <c r="AB59" s="33" t="e"/>
       <c r="AC59" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD59" s="33" t="e"/>
       <c r="AE59" s="33" t="s">
@@ -4581,11 +4602,11 @@
     </row>
     <row r="60" ht="13" customHeight="true" outlineLevel="1">
       <c r="A60" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B60" s="27" t="e"/>
       <c r="C60" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D60" s="28" t="e"/>
       <c r="E60" s="27" t="s">
@@ -4609,17 +4630,17 @@
       <c r="O60" s="29" t="e"/>
       <c r="P60" s="30" t="e"/>
       <c r="Q60" s="27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R60" s="27" t="e"/>
       <c r="S60" s="27" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="T60" s="27" t="e"/>
       <c r="U60" s="31" t="e"/>
       <c r="V60" s="32" t="e"/>
       <c r="W60" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X60" s="33" t="e"/>
       <c r="Y60" s="33" t="s">
@@ -4631,7 +4652,7 @@
       </c>
       <c r="AB60" s="33" t="e"/>
       <c r="AC60" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD60" s="33" t="e"/>
       <c r="AE60" s="33" t="s">
@@ -4649,11 +4670,11 @@
     </row>
     <row r="61" ht="13" customHeight="true" outlineLevel="1">
       <c r="A61" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="27" t="e"/>
       <c r="C61" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" s="28" t="e"/>
       <c r="E61" s="27" t="s">
@@ -4677,17 +4698,17 @@
       <c r="O61" s="29" t="e"/>
       <c r="P61" s="30" t="e"/>
       <c r="Q61" s="27" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="R61" s="27" t="e"/>
       <c r="S61" s="27" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="T61" s="27" t="e"/>
       <c r="U61" s="31" t="e"/>
       <c r="V61" s="32" t="e"/>
       <c r="W61" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X61" s="33" t="e"/>
       <c r="Y61" s="33" t="s">
@@ -4707,7 +4728,7 @@
       </c>
       <c r="AF61" s="33" t="e"/>
       <c r="AG61" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH61" s="33" t="e"/>
       <c r="AI61" s="33" t="s">
@@ -4717,11 +4738,11 @@
     </row>
     <row r="62" ht="13" customHeight="true" outlineLevel="1">
       <c r="A62" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" s="27" t="e"/>
       <c r="C62" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="28" t="e"/>
       <c r="E62" s="27" t="s">
@@ -4745,17 +4766,17 @@
       <c r="O62" s="29" t="e"/>
       <c r="P62" s="30" t="e"/>
       <c r="Q62" s="27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="R62" s="27" t="e"/>
       <c r="S62" s="27" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="T62" s="27" t="e"/>
       <c r="U62" s="31" t="e"/>
       <c r="V62" s="32" t="e"/>
       <c r="W62" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X62" s="33" t="e"/>
       <c r="Y62" s="33" t="s">
@@ -4775,7 +4796,7 @@
       </c>
       <c r="AF62" s="33" t="e"/>
       <c r="AG62" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH62" s="33" t="e"/>
       <c r="AI62" s="33" t="s">
@@ -4785,11 +4806,11 @@
     </row>
     <row r="63" ht="13" customHeight="true" outlineLevel="1">
       <c r="A63" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" s="27" t="e"/>
       <c r="C63" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D63" s="28" t="e"/>
       <c r="E63" s="27" t="s">
@@ -4813,17 +4834,17 @@
       <c r="O63" s="29" t="e"/>
       <c r="P63" s="30" t="e"/>
       <c r="Q63" s="27" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="R63" s="27" t="e"/>
       <c r="S63" s="27" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="T63" s="27" t="e"/>
       <c r="U63" s="31" t="e"/>
       <c r="V63" s="32" t="e"/>
       <c r="W63" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X63" s="33" t="e"/>
       <c r="Y63" s="33" t="s">
@@ -4881,17 +4902,17 @@
       <c r="O64" s="29" t="e"/>
       <c r="P64" s="30" t="e"/>
       <c r="Q64" s="27" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="R64" s="27" t="e"/>
       <c r="S64" s="27" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="T64" s="27" t="e"/>
       <c r="U64" s="31" t="e"/>
       <c r="V64" s="32" t="e"/>
       <c r="W64" s="33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="X64" s="33" t="e"/>
       <c r="Y64" s="33" t="s">
@@ -4903,7 +4924,7 @@
       </c>
       <c r="AB64" s="33" t="e"/>
       <c r="AC64" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD64" s="33" t="e"/>
       <c r="AE64" s="33" t="s">
@@ -4921,11 +4942,11 @@
     </row>
     <row r="65" ht="13" customHeight="true" outlineLevel="1">
       <c r="A65" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B65" s="27" t="e"/>
       <c r="C65" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65" s="28" t="e"/>
       <c r="E65" s="27" t="s">
@@ -4949,17 +4970,17 @@
       <c r="O65" s="29" t="e"/>
       <c r="P65" s="30" t="e"/>
       <c r="Q65" s="27" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="R65" s="27" t="e"/>
       <c r="S65" s="27" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="T65" s="27" t="e"/>
       <c r="U65" s="31" t="e"/>
       <c r="V65" s="32" t="e"/>
       <c r="W65" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X65" s="33" t="e"/>
       <c r="Y65" s="33" t="s">
@@ -4971,7 +4992,7 @@
       </c>
       <c r="AB65" s="33" t="e"/>
       <c r="AC65" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD65" s="33" t="e"/>
       <c r="AE65" s="33" t="s">
@@ -5017,17 +5038,17 @@
       <c r="O66" s="29" t="e"/>
       <c r="P66" s="30" t="e"/>
       <c r="Q66" s="27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="R66" s="27" t="e"/>
       <c r="S66" s="27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T66" s="27" t="e"/>
       <c r="U66" s="31" t="e"/>
       <c r="V66" s="32" t="e"/>
       <c r="W66" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="X66" s="33" t="e"/>
       <c r="Y66" s="33" t="s">
@@ -5057,11 +5078,11 @@
     </row>
     <row r="67" ht="13" customHeight="true" outlineLevel="1">
       <c r="A67" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" s="27" t="e"/>
       <c r="C67" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D67" s="28" t="e"/>
       <c r="E67" s="27" t="s">
@@ -5085,17 +5106,17 @@
       <c r="O67" s="29" t="e"/>
       <c r="P67" s="30" t="e"/>
       <c r="Q67" s="27" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="R67" s="27" t="e"/>
       <c r="S67" s="27" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="T67" s="27" t="e"/>
       <c r="U67" s="31" t="e"/>
       <c r="V67" s="32" t="e"/>
       <c r="W67" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X67" s="33" t="e"/>
       <c r="Y67" s="33" t="s">
@@ -5153,17 +5174,17 @@
       <c r="O68" s="29" t="e"/>
       <c r="P68" s="30" t="e"/>
       <c r="Q68" s="27" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="R68" s="27" t="e"/>
       <c r="S68" s="27" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="T68" s="27" t="e"/>
       <c r="U68" s="31" t="e"/>
       <c r="V68" s="32" t="e"/>
       <c r="W68" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X68" s="33" t="e"/>
       <c r="Y68" s="33" t="s">
@@ -5221,7 +5242,7 @@
       <c r="O69" s="29" t="e"/>
       <c r="P69" s="30" t="e"/>
       <c r="Q69" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R69" s="27" t="e"/>
       <c r="S69" s="27" t="s">
@@ -5231,7 +5252,7 @@
       <c r="U69" s="31" t="e"/>
       <c r="V69" s="32" t="e"/>
       <c r="W69" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X69" s="33" t="e"/>
       <c r="Y69" s="33" t="s">
@@ -5289,17 +5310,17 @@
       <c r="O70" s="29" t="e"/>
       <c r="P70" s="30" t="e"/>
       <c r="Q70" s="27" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="R70" s="27" t="e"/>
       <c r="S70" s="27" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="T70" s="27" t="e"/>
       <c r="U70" s="31" t="e"/>
       <c r="V70" s="32" t="e"/>
       <c r="W70" s="33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="X70" s="33" t="e"/>
       <c r="Y70" s="33" t="s">
@@ -5329,11 +5350,11 @@
     </row>
     <row r="71" ht="13" customHeight="true" outlineLevel="1">
       <c r="A71" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B71" s="27" t="e"/>
       <c r="C71" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D71" s="28" t="e"/>
       <c r="E71" s="27" t="s">
@@ -5361,13 +5382,13 @@
       </c>
       <c r="R71" s="27" t="e"/>
       <c r="S71" s="27" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="T71" s="27" t="e"/>
       <c r="U71" s="31" t="e"/>
       <c r="V71" s="32" t="e"/>
       <c r="W71" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X71" s="33" t="e"/>
       <c r="Y71" s="33" t="s">
@@ -5379,7 +5400,7 @@
       </c>
       <c r="AB71" s="33" t="e"/>
       <c r="AC71" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD71" s="33" t="e"/>
       <c r="AE71" s="33" t="s">
@@ -5397,11 +5418,11 @@
     </row>
     <row r="72" ht="13" customHeight="true" outlineLevel="1">
       <c r="A72" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B72" s="27" t="e"/>
       <c r="C72" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D72" s="28" t="e"/>
       <c r="E72" s="27" t="s">
@@ -5429,13 +5450,15 @@
       </c>
       <c r="R72" s="27" t="e"/>
       <c r="S72" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T72" s="27" t="e"/>
-      <c r="U72" s="31" t="e"/>
-      <c r="V72" s="32" t="e"/>
+      <c r="U72" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" s="33" t="e"/>
       <c r="W72" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X72" s="33" t="e"/>
       <c r="Y72" s="33" t="s">
@@ -5447,7 +5470,7 @@
       </c>
       <c r="AB72" s="33" t="e"/>
       <c r="AC72" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD72" s="33" t="e"/>
       <c r="AE72" s="33" t="s">
@@ -5465,11 +5488,11 @@
     </row>
     <row r="73" ht="13" customHeight="true" outlineLevel="1">
       <c r="A73" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B73" s="27" t="e"/>
       <c r="C73" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D73" s="28" t="e"/>
       <c r="E73" s="27" t="s">
@@ -5497,15 +5520,13 @@
       </c>
       <c r="R73" s="27" t="e"/>
       <c r="S73" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T73" s="27" t="e"/>
-      <c r="U73" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="V73" s="33" t="e"/>
+      <c r="U73" s="31" t="e"/>
+      <c r="V73" s="32" t="e"/>
       <c r="W73" s="33" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="X73" s="33" t="e"/>
       <c r="Y73" s="33" t="s">
@@ -5535,11 +5556,11 @@
     </row>
     <row r="74" ht="13" customHeight="true" outlineLevel="1">
       <c r="A74" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B74" s="27" t="e"/>
       <c r="C74" s="28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D74" s="28" t="e"/>
       <c r="E74" s="27" t="s">
@@ -5563,19 +5584,17 @@
       <c r="O74" s="29" t="e"/>
       <c r="P74" s="30" t="e"/>
       <c r="Q74" s="27" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="R74" s="27" t="e"/>
       <c r="S74" s="27" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="T74" s="27" t="e"/>
-      <c r="U74" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="V74" s="33" t="e"/>
+      <c r="U74" s="31" t="e"/>
+      <c r="V74" s="32" t="e"/>
       <c r="W74" s="33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X74" s="33" t="e"/>
       <c r="Y74" s="33" t="s">
@@ -5605,11 +5624,11 @@
     </row>
     <row r="75" ht="13" customHeight="true" outlineLevel="1">
       <c r="A75" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B75" s="27" t="e"/>
       <c r="C75" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D75" s="28" t="e"/>
       <c r="E75" s="27" t="s">
@@ -5633,17 +5652,17 @@
       <c r="O75" s="29" t="e"/>
       <c r="P75" s="30" t="e"/>
       <c r="Q75" s="27" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="R75" s="27" t="e"/>
       <c r="S75" s="27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="T75" s="27" t="e"/>
       <c r="U75" s="31" t="e"/>
       <c r="V75" s="32" t="e"/>
       <c r="W75" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X75" s="33" t="e"/>
       <c r="Y75" s="33" t="s">
@@ -5655,7 +5674,7 @@
       </c>
       <c r="AB75" s="33" t="e"/>
       <c r="AC75" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD75" s="33" t="e"/>
       <c r="AE75" s="33" t="s">
@@ -5701,7 +5720,7 @@
       <c r="O76" s="29" t="e"/>
       <c r="P76" s="30" t="e"/>
       <c r="Q76" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R76" s="27" t="e"/>
       <c r="S76" s="27" t="s">
@@ -5711,7 +5730,7 @@
       <c r="U76" s="31" t="e"/>
       <c r="V76" s="32" t="e"/>
       <c r="W76" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X76" s="33" t="e"/>
       <c r="Y76" s="33" t="s">
@@ -5723,7 +5742,7 @@
       </c>
       <c r="AB76" s="33" t="e"/>
       <c r="AC76" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD76" s="33" t="e"/>
       <c r="AE76" s="33" t="s">
@@ -5769,7 +5788,7 @@
       <c r="O77" s="29" t="e"/>
       <c r="P77" s="30" t="e"/>
       <c r="Q77" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R77" s="27" t="e"/>
       <c r="S77" s="27" t="s">
@@ -5779,7 +5798,7 @@
       <c r="U77" s="31" t="e"/>
       <c r="V77" s="32" t="e"/>
       <c r="W77" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X77" s="33" t="e"/>
       <c r="Y77" s="33" t="s">
@@ -5809,11 +5828,11 @@
     </row>
     <row r="78" ht="13" customHeight="true" outlineLevel="1">
       <c r="A78" s="27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B78" s="27" t="e"/>
       <c r="C78" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D78" s="28" t="e"/>
       <c r="E78" s="27" t="s">
@@ -5837,17 +5856,17 @@
       <c r="O78" s="29" t="e"/>
       <c r="P78" s="30" t="e"/>
       <c r="Q78" s="27" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="R78" s="27" t="e"/>
       <c r="S78" s="27" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="T78" s="27" t="e"/>
       <c r="U78" s="31" t="e"/>
       <c r="V78" s="32" t="e"/>
       <c r="W78" s="33" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="X78" s="33" t="e"/>
       <c r="Y78" s="33" t="s">
@@ -5877,11 +5896,11 @@
     </row>
     <row r="79" ht="13" customHeight="true" outlineLevel="1">
       <c r="A79" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B79" s="27" t="e"/>
       <c r="C79" s="28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D79" s="28" t="e"/>
       <c r="E79" s="27" t="s">
@@ -5905,11 +5924,11 @@
       <c r="O79" s="29" t="e"/>
       <c r="P79" s="30" t="e"/>
       <c r="Q79" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R79" s="27" t="e"/>
       <c r="S79" s="27" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="T79" s="27" t="e"/>
       <c r="U79" s="33" t="s">
@@ -5917,7 +5936,7 @@
       </c>
       <c r="V79" s="33" t="e"/>
       <c r="W79" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X79" s="33" t="e"/>
       <c r="Y79" s="33" t="s">
@@ -5929,7 +5948,7 @@
       </c>
       <c r="AB79" s="33" t="e"/>
       <c r="AC79" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD79" s="33" t="e"/>
       <c r="AE79" s="33" t="s">
@@ -5975,11 +5994,11 @@
       <c r="O80" s="29" t="e"/>
       <c r="P80" s="30" t="e"/>
       <c r="Q80" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R80" s="27" t="e"/>
       <c r="S80" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T80" s="27" t="e"/>
       <c r="U80" s="31" t="e"/>
@@ -6047,7 +6066,7 @@
       </c>
       <c r="R81" s="27" t="e"/>
       <c r="S81" s="27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="T81" s="27" t="e"/>
       <c r="U81" s="33" t="s">
@@ -6113,7 +6132,7 @@
       <c r="O82" s="29" t="e"/>
       <c r="P82" s="30" t="e"/>
       <c r="Q82" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R82" s="27" t="e"/>
       <c r="S82" s="27" t="s">
@@ -6181,7 +6200,7 @@
       <c r="O83" s="29" t="e"/>
       <c r="P83" s="30" t="e"/>
       <c r="Q83" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R83" s="27" t="e"/>
       <c r="S83" s="27" t="s">
@@ -6249,11 +6268,11 @@
       <c r="O84" s="29" t="e"/>
       <c r="P84" s="30" t="e"/>
       <c r="Q84" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R84" s="27" t="e"/>
       <c r="S84" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T84" s="27" t="e"/>
       <c r="U84" s="31" t="e"/>
@@ -6317,11 +6336,11 @@
       <c r="O85" s="29" t="e"/>
       <c r="P85" s="30" t="e"/>
       <c r="Q85" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R85" s="27" t="e"/>
       <c r="S85" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T85" s="27" t="e"/>
       <c r="U85" s="31" t="e"/>
@@ -6339,7 +6358,7 @@
       </c>
       <c r="AB85" s="33" t="e"/>
       <c r="AC85" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD85" s="33" t="e"/>
       <c r="AE85" s="33" t="s">
@@ -6385,11 +6404,11 @@
       <c r="O86" s="29" t="e"/>
       <c r="P86" s="30" t="e"/>
       <c r="Q86" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R86" s="27" t="e"/>
       <c r="S86" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T86" s="27" t="e"/>
       <c r="U86" s="31" t="e"/>
@@ -6425,7 +6444,7 @@
     </row>
     <row r="87" ht="13" customHeight="true" outlineLevel="1">
       <c r="A87" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B87" s="27" t="e"/>
       <c r="C87" s="28" t="s">
@@ -6453,11 +6472,11 @@
       <c r="O87" s="29" t="e"/>
       <c r="P87" s="30" t="e"/>
       <c r="Q87" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R87" s="27" t="e"/>
       <c r="S87" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T87" s="27" t="e"/>
       <c r="U87" s="31" t="e"/>
@@ -6493,7 +6512,7 @@
     </row>
     <row r="88" ht="13" customHeight="true" outlineLevel="1">
       <c r="A88" s="27" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B88" s="27" t="e"/>
       <c r="C88" s="28" t="s">
@@ -6521,7 +6540,7 @@
       <c r="O88" s="29" t="e"/>
       <c r="P88" s="30" t="e"/>
       <c r="Q88" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R88" s="27" t="e"/>
       <c r="S88" s="27" t="s">
@@ -6561,7 +6580,7 @@
     </row>
     <row r="89" ht="13" customHeight="true" outlineLevel="1">
       <c r="A89" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B89" s="27" t="e"/>
       <c r="C89" s="28" t="s">
@@ -6629,7 +6648,7 @@
     </row>
     <row r="90" ht="13" customHeight="true" outlineLevel="1">
       <c r="A90" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90" s="27" t="e"/>
       <c r="C90" s="28" t="s">
@@ -6657,11 +6676,11 @@
       <c r="O90" s="29" t="e"/>
       <c r="P90" s="30" t="e"/>
       <c r="Q90" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R90" s="27" t="e"/>
       <c r="S90" s="27" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="T90" s="27" t="e"/>
       <c r="U90" s="31" t="e"/>
@@ -6833,7 +6852,7 @@
     </row>
     <row r="93" ht="13" customHeight="true" outlineLevel="1">
       <c r="A93" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="27" t="e"/>
       <c r="C93" s="28" t="s">
@@ -6861,7 +6880,7 @@
       <c r="O93" s="29" t="e"/>
       <c r="P93" s="30" t="e"/>
       <c r="Q93" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R93" s="27" t="e"/>
       <c r="S93" s="27" t="s">
@@ -6903,7 +6922,7 @@
     </row>
     <row r="94" ht="13" customHeight="true" outlineLevel="1">
       <c r="A94" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="27" t="e"/>
       <c r="C94" s="28" t="s">
@@ -6999,19 +7018,17 @@
       <c r="O95" s="29" t="e"/>
       <c r="P95" s="30" t="e"/>
       <c r="Q95" s="27" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="R95" s="27" t="e"/>
       <c r="S95" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T95" s="27" t="e"/>
-      <c r="U95" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="V95" s="33" t="e"/>
+      <c r="U95" s="31" t="e"/>
+      <c r="V95" s="32" t="e"/>
       <c r="W95" s="33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="X95" s="33" t="e"/>
       <c r="Y95" s="33" t="s">
@@ -7041,11 +7058,11 @@
     </row>
     <row r="96" ht="13" customHeight="true" outlineLevel="1">
       <c r="A96" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B96" s="27" t="e"/>
       <c r="C96" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D96" s="28" t="e"/>
       <c r="E96" s="27" t="s">
@@ -7069,17 +7086,17 @@
       <c r="O96" s="29" t="e"/>
       <c r="P96" s="30" t="e"/>
       <c r="Q96" s="27" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="R96" s="27" t="e"/>
       <c r="S96" s="27" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="T96" s="27" t="e"/>
       <c r="U96" s="31" t="e"/>
       <c r="V96" s="32" t="e"/>
       <c r="W96" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X96" s="33" t="e"/>
       <c r="Y96" s="33" t="s">
@@ -7113,7 +7130,7 @@
       </c>
       <c r="B97" s="27" t="e"/>
       <c r="C97" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D97" s="28" t="e"/>
       <c r="E97" s="27" t="s">
@@ -7137,17 +7154,17 @@
       <c r="O97" s="29" t="e"/>
       <c r="P97" s="30" t="e"/>
       <c r="Q97" s="27" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="R97" s="27" t="e"/>
       <c r="S97" s="27" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T97" s="27" t="e"/>
       <c r="U97" s="31" t="e"/>
       <c r="V97" s="32" t="e"/>
       <c r="W97" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X97" s="33" t="e"/>
       <c r="Y97" s="33" t="s">
@@ -7177,11 +7194,11 @@
     </row>
     <row r="98" ht="13" customHeight="true" outlineLevel="1">
       <c r="A98" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B98" s="27" t="e"/>
       <c r="C98" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D98" s="28" t="e"/>
       <c r="E98" s="27" t="s">
@@ -7205,17 +7222,17 @@
       <c r="O98" s="29" t="e"/>
       <c r="P98" s="30" t="e"/>
       <c r="Q98" s="27" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="R98" s="27" t="e"/>
       <c r="S98" s="27" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="T98" s="27" t="e"/>
       <c r="U98" s="31" t="e"/>
       <c r="V98" s="32" t="e"/>
       <c r="W98" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X98" s="33" t="e"/>
       <c r="Y98" s="33" t="s">
@@ -7245,7 +7262,7 @@
     </row>
     <row r="99" ht="13" customHeight="true" outlineLevel="1">
       <c r="A99" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B99" s="27" t="e"/>
       <c r="C99" s="28" t="s">
@@ -7345,7 +7362,7 @@
       </c>
       <c r="R100" s="27" t="e"/>
       <c r="S100" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T100" s="27" t="e"/>
       <c r="U100" s="31" t="e"/>
@@ -7409,11 +7426,11 @@
       <c r="O101" s="29" t="e"/>
       <c r="P101" s="30" t="e"/>
       <c r="Q101" s="27" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="R101" s="27" t="e"/>
       <c r="S101" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T101" s="27" t="e"/>
       <c r="U101" s="31" t="e"/>
@@ -7477,11 +7494,11 @@
       <c r="O102" s="29" t="e"/>
       <c r="P102" s="30" t="e"/>
       <c r="Q102" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R102" s="27" t="e"/>
       <c r="S102" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T102" s="27" t="e"/>
       <c r="U102" s="31" t="e"/>
@@ -7545,11 +7562,11 @@
       <c r="O103" s="29" t="e"/>
       <c r="P103" s="30" t="e"/>
       <c r="Q103" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R103" s="27" t="e"/>
       <c r="S103" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T103" s="27" t="e"/>
       <c r="U103" s="31" t="e"/>
@@ -7613,11 +7630,11 @@
       <c r="O104" s="29" t="e"/>
       <c r="P104" s="30" t="e"/>
       <c r="Q104" s="27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="R104" s="27" t="e"/>
       <c r="S104" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T104" s="27" t="e"/>
       <c r="U104" s="31" t="e"/>
@@ -7681,7 +7698,7 @@
       <c r="O105" s="29" t="e"/>
       <c r="P105" s="30" t="e"/>
       <c r="Q105" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R105" s="27" t="e"/>
       <c r="S105" s="27" t="s">
@@ -7749,11 +7766,11 @@
       <c r="O106" s="29" t="e"/>
       <c r="P106" s="30" t="e"/>
       <c r="Q106" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R106" s="27" t="e"/>
       <c r="S106" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T106" s="27" t="e"/>
       <c r="U106" s="31" t="e"/>
@@ -7821,7 +7838,7 @@
       </c>
       <c r="R107" s="27" t="e"/>
       <c r="S107" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T107" s="27" t="e"/>
       <c r="U107" s="31" t="e"/>
@@ -7885,11 +7902,11 @@
       <c r="O108" s="29" t="e"/>
       <c r="P108" s="30" t="e"/>
       <c r="Q108" s="27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="R108" s="27" t="e"/>
       <c r="S108" s="27" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="T108" s="27" t="e"/>
       <c r="U108" s="31" t="e"/>
@@ -7925,7 +7942,7 @@
     </row>
     <row r="109" ht="13" customHeight="true" outlineLevel="1">
       <c r="A109" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" s="27" t="e"/>
       <c r="C109" s="28" t="s">
@@ -7953,11 +7970,11 @@
       <c r="O109" s="29" t="e"/>
       <c r="P109" s="30" t="e"/>
       <c r="Q109" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R109" s="27" t="e"/>
       <c r="S109" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T109" s="27" t="e"/>
       <c r="U109" s="31" t="e"/>
@@ -8021,7 +8038,7 @@
       <c r="O110" s="29" t="e"/>
       <c r="P110" s="30" t="e"/>
       <c r="Q110" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R110" s="27" t="e"/>
       <c r="S110" s="27" t="s">
@@ -8089,7 +8106,7 @@
       <c r="O111" s="29" t="e"/>
       <c r="P111" s="30" t="e"/>
       <c r="Q111" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R111" s="27" t="e"/>
       <c r="S111" s="27" t="s">
@@ -8157,17 +8174,15 @@
       <c r="O112" s="29" t="e"/>
       <c r="P112" s="30" t="e"/>
       <c r="Q112" s="27" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R112" s="27" t="e"/>
       <c r="S112" s="27" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="T112" s="27" t="e"/>
-      <c r="U112" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="V112" s="33" t="e"/>
+      <c r="U112" s="31" t="e"/>
+      <c r="V112" s="32" t="e"/>
       <c r="W112" s="33" t="s">
         <v>276</v>
       </c>
@@ -8227,17 +8242,19 @@
       <c r="O113" s="29" t="e"/>
       <c r="P113" s="30" t="e"/>
       <c r="Q113" s="27" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="R113" s="27" t="e"/>
       <c r="S113" s="27" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="T113" s="27" t="e"/>
-      <c r="U113" s="31" t="e"/>
-      <c r="V113" s="32" t="e"/>
+      <c r="U113" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V113" s="33" t="e"/>
       <c r="W113" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X113" s="33" t="e"/>
       <c r="Y113" s="33" t="s">
@@ -8267,11 +8284,11 @@
     </row>
     <row r="114" ht="13" customHeight="true" outlineLevel="1">
       <c r="A114" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B114" s="27" t="e"/>
       <c r="C114" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D114" s="28" t="e"/>
       <c r="E114" s="27" t="s">
@@ -8295,17 +8312,17 @@
       <c r="O114" s="29" t="e"/>
       <c r="P114" s="30" t="e"/>
       <c r="Q114" s="27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R114" s="27" t="e"/>
       <c r="S114" s="27" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="T114" s="27" t="e"/>
       <c r="U114" s="31" t="e"/>
       <c r="V114" s="32" t="e"/>
       <c r="W114" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X114" s="33" t="e"/>
       <c r="Y114" s="33" t="s">
@@ -8339,7 +8356,7 @@
       </c>
       <c r="B115" s="27" t="e"/>
       <c r="C115" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" s="28" t="e"/>
       <c r="E115" s="27" t="s">
@@ -8363,17 +8380,17 @@
       <c r="O115" s="29" t="e"/>
       <c r="P115" s="30" t="e"/>
       <c r="Q115" s="27" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="R115" s="27" t="e"/>
       <c r="S115" s="27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T115" s="27" t="e"/>
       <c r="U115" s="31" t="e"/>
       <c r="V115" s="32" t="e"/>
       <c r="W115" s="33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X115" s="33" t="e"/>
       <c r="Y115" s="33" t="s">
@@ -8431,17 +8448,17 @@
       <c r="O116" s="29" t="e"/>
       <c r="P116" s="30" t="e"/>
       <c r="Q116" s="27" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="R116" s="27" t="e"/>
       <c r="S116" s="27" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="T116" s="27" t="e"/>
       <c r="U116" s="31" t="e"/>
       <c r="V116" s="32" t="e"/>
       <c r="W116" s="33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="X116" s="33" t="e"/>
       <c r="Y116" s="33" t="s">
@@ -8475,7 +8492,7 @@
       </c>
       <c r="B117" s="27" t="e"/>
       <c r="C117" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D117" s="28" t="e"/>
       <c r="E117" s="27" t="s">
@@ -8498,18 +8515,18 @@
       <c r="N117" s="30" t="e"/>
       <c r="O117" s="29" t="e"/>
       <c r="P117" s="30" t="e"/>
-      <c r="Q117" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R117" s="27" t="e"/>
-      <c r="S117" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="T117" s="27" t="e"/>
+      <c r="Q117" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="R117" s="34" t="e"/>
+      <c r="S117" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="T117" s="34" t="e"/>
       <c r="U117" s="31" t="e"/>
       <c r="V117" s="32" t="e"/>
       <c r="W117" s="33" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="X117" s="33" t="e"/>
       <c r="Y117" s="33" t="s">
@@ -8521,7 +8538,7 @@
       </c>
       <c r="AB117" s="33" t="e"/>
       <c r="AC117" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD117" s="33" t="e"/>
       <c r="AE117" s="33" t="s">
@@ -8539,11 +8556,11 @@
     </row>
     <row r="118" ht="13" customHeight="true" outlineLevel="1">
       <c r="A118" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B118" s="27" t="e"/>
       <c r="C118" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D118" s="28" t="e"/>
       <c r="E118" s="27" t="s">
@@ -8566,18 +8583,18 @@
       <c r="N118" s="30" t="e"/>
       <c r="O118" s="29" t="e"/>
       <c r="P118" s="30" t="e"/>
-      <c r="Q118" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="R118" s="27" t="e"/>
-      <c r="S118" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="T118" s="27" t="e"/>
+      <c r="Q118" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="R118" s="34" t="e"/>
+      <c r="S118" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="T118" s="34" t="e"/>
       <c r="U118" s="31" t="e"/>
       <c r="V118" s="32" t="e"/>
       <c r="W118" s="33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X118" s="33" t="e"/>
       <c r="Y118" s="33" t="s">
@@ -8607,11 +8624,11 @@
     </row>
     <row r="119" ht="13" customHeight="true" outlineLevel="1">
       <c r="A119" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119" s="27" t="e"/>
       <c r="C119" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D119" s="28" t="e"/>
       <c r="E119" s="27" t="s">
@@ -8635,7 +8652,7 @@
       <c r="O119" s="29" t="e"/>
       <c r="P119" s="30" t="e"/>
       <c r="Q119" s="27" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="R119" s="27" t="e"/>
       <c r="S119" s="27" t="s">
@@ -8645,7 +8662,7 @@
       <c r="U119" s="31" t="e"/>
       <c r="V119" s="32" t="e"/>
       <c r="W119" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X119" s="33" t="e"/>
       <c r="Y119" s="33" t="s">
@@ -8675,11 +8692,11 @@
     </row>
     <row r="120" ht="13" customHeight="true" outlineLevel="1">
       <c r="A120" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B120" s="27" t="e"/>
       <c r="C120" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D120" s="28" t="e"/>
       <c r="E120" s="27" t="s">
@@ -8703,17 +8720,17 @@
       <c r="O120" s="29" t="e"/>
       <c r="P120" s="30" t="e"/>
       <c r="Q120" s="27" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="R120" s="27" t="e"/>
       <c r="S120" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T120" s="27" t="e"/>
       <c r="U120" s="31" t="e"/>
       <c r="V120" s="32" t="e"/>
       <c r="W120" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X120" s="33" t="e"/>
       <c r="Y120" s="33" t="s">
@@ -8743,11 +8760,11 @@
     </row>
     <row r="121" ht="13" customHeight="true" outlineLevel="1">
       <c r="A121" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B121" s="27" t="e"/>
       <c r="C121" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D121" s="28" t="e"/>
       <c r="E121" s="27" t="s">
@@ -8771,17 +8788,17 @@
       <c r="O121" s="29" t="e"/>
       <c r="P121" s="30" t="e"/>
       <c r="Q121" s="27" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="R121" s="27" t="e"/>
       <c r="S121" s="27" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="T121" s="27" t="e"/>
       <c r="U121" s="31" t="e"/>
       <c r="V121" s="32" t="e"/>
       <c r="W121" s="33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="X121" s="33" t="e"/>
       <c r="Y121" s="33" t="s">
@@ -8793,7 +8810,7 @@
       </c>
       <c r="AB121" s="33" t="e"/>
       <c r="AC121" s="33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD121" s="33" t="e"/>
       <c r="AE121" s="33" t="s">
@@ -8839,17 +8856,17 @@
       <c r="O122" s="29" t="e"/>
       <c r="P122" s="30" t="e"/>
       <c r="Q122" s="27" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="R122" s="27" t="e"/>
       <c r="S122" s="27" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="T122" s="27" t="e"/>
       <c r="U122" s="31" t="e"/>
       <c r="V122" s="32" t="e"/>
       <c r="W122" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X122" s="33" t="e"/>
       <c r="Y122" s="33" t="s">
@@ -8879,11 +8896,11 @@
     </row>
     <row r="123" ht="13" customHeight="true" outlineLevel="1">
       <c r="A123" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123" s="27" t="e"/>
       <c r="C123" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D123" s="28" t="e"/>
       <c r="E123" s="27" t="s">
@@ -8907,17 +8924,17 @@
       <c r="O123" s="29" t="e"/>
       <c r="P123" s="30" t="e"/>
       <c r="Q123" s="27" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="R123" s="27" t="e"/>
       <c r="S123" s="27" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="T123" s="27" t="e"/>
       <c r="U123" s="31" t="e"/>
       <c r="V123" s="32" t="e"/>
       <c r="W123" s="33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="X123" s="33" t="e"/>
       <c r="Y123" s="33" t="s">
@@ -8975,17 +8992,17 @@
       <c r="O124" s="29" t="e"/>
       <c r="P124" s="30" t="e"/>
       <c r="Q124" s="27" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R124" s="27" t="e"/>
       <c r="S124" s="27" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="T124" s="27" t="e"/>
       <c r="U124" s="31" t="e"/>
       <c r="V124" s="32" t="e"/>
       <c r="W124" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="X124" s="33" t="e"/>
       <c r="Y124" s="33" t="s">
@@ -9015,11 +9032,11 @@
     </row>
     <row r="125" ht="13" customHeight="true" outlineLevel="1">
       <c r="A125" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B125" s="27" t="e"/>
       <c r="C125" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D125" s="28" t="e"/>
       <c r="E125" s="27" t="s">
@@ -9043,17 +9060,17 @@
       <c r="O125" s="29" t="e"/>
       <c r="P125" s="30" t="e"/>
       <c r="Q125" s="27" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="R125" s="27" t="e"/>
       <c r="S125" s="27" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="T125" s="27" t="e"/>
       <c r="U125" s="31" t="e"/>
       <c r="V125" s="32" t="e"/>
       <c r="W125" s="33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X125" s="33" t="e"/>
       <c r="Y125" s="33" t="s">
@@ -9110,16 +9127,18 @@
       <c r="N126" s="30" t="e"/>
       <c r="O126" s="29" t="e"/>
       <c r="P126" s="30" t="e"/>
-      <c r="Q126" s="29" t="e"/>
-      <c r="R126" s="30" t="e"/>
+      <c r="Q126" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="R126" s="27" t="e"/>
       <c r="S126" s="27" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="T126" s="27" t="e"/>
       <c r="U126" s="31" t="e"/>
       <c r="V126" s="32" t="e"/>
       <c r="W126" s="33" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="X126" s="33" t="e"/>
       <c r="Y126" s="33" t="s">
@@ -9176,16 +9195,18 @@
       <c r="N127" s="30" t="e"/>
       <c r="O127" s="29" t="e"/>
       <c r="P127" s="30" t="e"/>
-      <c r="Q127" s="29" t="e"/>
-      <c r="R127" s="30" t="e"/>
-      <c r="S127" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="T127" s="27" t="e"/>
+      <c r="Q127" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="R127" s="34" t="e"/>
+      <c r="S127" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="T127" s="34" t="e"/>
       <c r="U127" s="31" t="e"/>
       <c r="V127" s="32" t="e"/>
       <c r="W127" s="33" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="X127" s="33" t="e"/>
       <c r="Y127" s="33" t="s">
@@ -9215,11 +9236,11 @@
     </row>
     <row r="128" ht="13" customHeight="true" outlineLevel="1">
       <c r="A128" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B128" s="27" t="e"/>
       <c r="C128" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D128" s="28" t="e"/>
       <c r="E128" s="27" t="s">
@@ -9242,16 +9263,18 @@
       <c r="N128" s="30" t="e"/>
       <c r="O128" s="29" t="e"/>
       <c r="P128" s="30" t="e"/>
-      <c r="Q128" s="29" t="e"/>
-      <c r="R128" s="30" t="e"/>
+      <c r="Q128" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R128" s="27" t="e"/>
       <c r="S128" s="27" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="T128" s="27" t="e"/>
       <c r="U128" s="31" t="e"/>
       <c r="V128" s="32" t="e"/>
       <c r="W128" s="33" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="X128" s="33" t="e"/>
       <c r="Y128" s="33" t="s">
@@ -9281,11 +9304,11 @@
     </row>
     <row r="129" ht="13" customHeight="true" outlineLevel="1">
       <c r="A129" s="27" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B129" s="27" t="e"/>
       <c r="C129" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D129" s="28" t="e"/>
       <c r="E129" s="27" t="s">
@@ -9308,16 +9331,18 @@
       <c r="N129" s="30" t="e"/>
       <c r="O129" s="29" t="e"/>
       <c r="P129" s="30" t="e"/>
-      <c r="Q129" s="29" t="e"/>
-      <c r="R129" s="30" t="e"/>
-      <c r="S129" s="29" t="e"/>
-      <c r="T129" s="30" t="e"/>
-      <c r="U129" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="V129" s="33" t="e"/>
+      <c r="Q129" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R129" s="27" t="e"/>
+      <c r="S129" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="T129" s="27" t="e"/>
+      <c r="U129" s="31" t="e"/>
+      <c r="V129" s="32" t="e"/>
       <c r="W129" s="33" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="X129" s="33" t="e"/>
       <c r="Y129" s="33" t="s">
@@ -9347,11 +9372,11 @@
     </row>
     <row r="130" ht="13" customHeight="true" outlineLevel="1">
       <c r="A130" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B130" s="27" t="e"/>
       <c r="C130" s="28" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="D130" s="28" t="e"/>
       <c r="E130" s="27" t="s">
@@ -9374,14 +9399,18 @@
       <c r="N130" s="30" t="e"/>
       <c r="O130" s="29" t="e"/>
       <c r="P130" s="30" t="e"/>
-      <c r="Q130" s="29" t="e"/>
-      <c r="R130" s="30" t="e"/>
-      <c r="S130" s="29" t="e"/>
-      <c r="T130" s="30" t="e"/>
+      <c r="Q130" s="35" t="e"/>
+      <c r="R130" s="36" t="e"/>
+      <c r="S130" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="T130" s="27" t="e"/>
       <c r="U130" s="31" t="e"/>
       <c r="V130" s="32" t="e"/>
-      <c r="W130" s="31" t="e"/>
-      <c r="X130" s="32" t="e"/>
+      <c r="W130" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="X130" s="33" t="e"/>
       <c r="Y130" s="33" t="s">
         <v>34</v>
       </c>
@@ -9409,11 +9438,11 @@
     </row>
     <row r="131" ht="13" customHeight="true" outlineLevel="1">
       <c r="A131" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B131" s="27" t="e"/>
       <c r="C131" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D131" s="28" t="e"/>
       <c r="E131" s="27" t="s">
@@ -9438,12 +9467,16 @@
       <c r="P131" s="30" t="e"/>
       <c r="Q131" s="29" t="e"/>
       <c r="R131" s="30" t="e"/>
-      <c r="S131" s="29" t="e"/>
-      <c r="T131" s="30" t="e"/>
+      <c r="S131" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="T131" s="27" t="e"/>
       <c r="U131" s="31" t="e"/>
       <c r="V131" s="32" t="e"/>
-      <c r="W131" s="31" t="e"/>
-      <c r="X131" s="32" t="e"/>
+      <c r="W131" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="X131" s="33" t="e"/>
       <c r="Y131" s="33" t="s">
         <v>34</v>
       </c>
@@ -9471,11 +9504,11 @@
     </row>
     <row r="132" ht="13" customHeight="true" outlineLevel="1">
       <c r="A132" s="27" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B132" s="27" t="e"/>
       <c r="C132" s="28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D132" s="28" t="e"/>
       <c r="E132" s="27" t="s">
@@ -9502,10 +9535,14 @@
       <c r="R132" s="30" t="e"/>
       <c r="S132" s="29" t="e"/>
       <c r="T132" s="30" t="e"/>
-      <c r="U132" s="31" t="e"/>
-      <c r="V132" s="32" t="e"/>
-      <c r="W132" s="31" t="e"/>
-      <c r="X132" s="32" t="e"/>
+      <c r="U132" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V132" s="33" t="e"/>
+      <c r="W132" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X132" s="33" t="e"/>
       <c r="Y132" s="33" t="s">
         <v>34</v>
       </c>
@@ -9533,11 +9570,11 @@
     </row>
     <row r="133" ht="13" customHeight="true" outlineLevel="1">
       <c r="A133" s="27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B133" s="27" t="e"/>
       <c r="C133" s="28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D133" s="28" t="e"/>
       <c r="E133" s="27" t="s">
@@ -9564,10 +9601,14 @@
       <c r="R133" s="30" t="e"/>
       <c r="S133" s="29" t="e"/>
       <c r="T133" s="30" t="e"/>
-      <c r="U133" s="31" t="e"/>
-      <c r="V133" s="32" t="e"/>
-      <c r="W133" s="31" t="e"/>
-      <c r="X133" s="32" t="e"/>
+      <c r="U133" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V133" s="33" t="e"/>
+      <c r="W133" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X133" s="33" t="e"/>
       <c r="Y133" s="33" t="s">
         <v>34</v>
       </c>
@@ -9595,11 +9636,11 @@
     </row>
     <row r="134" ht="13" customHeight="true" outlineLevel="1">
       <c r="A134" s="27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B134" s="27" t="e"/>
       <c r="C134" s="28" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="D134" s="28" t="e"/>
       <c r="E134" s="27" t="s">
@@ -9622,10 +9663,10 @@
       <c r="N134" s="30" t="e"/>
       <c r="O134" s="29" t="e"/>
       <c r="P134" s="30" t="e"/>
-      <c r="Q134" s="29" t="e"/>
-      <c r="R134" s="30" t="e"/>
-      <c r="S134" s="29" t="e"/>
-      <c r="T134" s="30" t="e"/>
+      <c r="Q134" s="35" t="e"/>
+      <c r="R134" s="36" t="e"/>
+      <c r="S134" s="35" t="e"/>
+      <c r="T134" s="36" t="e"/>
       <c r="U134" s="31" t="e"/>
       <c r="V134" s="32" t="e"/>
       <c r="W134" s="31" t="e"/>
@@ -9657,11 +9698,11 @@
     </row>
     <row r="135" ht="13" customHeight="true" outlineLevel="1">
       <c r="A135" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B135" s="27" t="e"/>
       <c r="C135" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D135" s="28" t="e"/>
       <c r="E135" s="27" t="s">
@@ -9684,10 +9725,10 @@
       <c r="N135" s="30" t="e"/>
       <c r="O135" s="29" t="e"/>
       <c r="P135" s="30" t="e"/>
-      <c r="Q135" s="29" t="e"/>
-      <c r="R135" s="30" t="e"/>
-      <c r="S135" s="29" t="e"/>
-      <c r="T135" s="30" t="e"/>
+      <c r="Q135" s="35" t="e"/>
+      <c r="R135" s="36" t="e"/>
+      <c r="S135" s="35" t="e"/>
+      <c r="T135" s="36" t="e"/>
       <c r="U135" s="31" t="e"/>
       <c r="V135" s="32" t="e"/>
       <c r="W135" s="31" t="e"/>
@@ -9709,7 +9750,7 @@
       </c>
       <c r="AF135" s="33" t="e"/>
       <c r="AG135" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH135" s="33" t="e"/>
       <c r="AI135" s="33" t="s">
@@ -9719,11 +9760,11 @@
     </row>
     <row r="136" ht="13" customHeight="true" outlineLevel="1">
       <c r="A136" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B136" s="27" t="e"/>
       <c r="C136" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D136" s="28" t="e"/>
       <c r="E136" s="27" t="s">
@@ -9779,9 +9820,133 @@
       </c>
       <c r="AJ136" s="33" t="e"/>
     </row>
-    <row r="137" ht="10" customHeight="true" s="1" customFormat="true"/>
+    <row r="137" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A137" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="27" t="e"/>
+      <c r="C137" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D137" s="28" t="e"/>
+      <c r="E137" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="27" t="e"/>
+      <c r="G137" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="27" t="e"/>
+      <c r="I137" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="27" t="e"/>
+      <c r="K137" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L137" s="27" t="e"/>
+      <c r="M137" s="29" t="e"/>
+      <c r="N137" s="30" t="e"/>
+      <c r="O137" s="29" t="e"/>
+      <c r="P137" s="30" t="e"/>
+      <c r="Q137" s="29" t="e"/>
+      <c r="R137" s="30" t="e"/>
+      <c r="S137" s="29" t="e"/>
+      <c r="T137" s="30" t="e"/>
+      <c r="U137" s="31" t="e"/>
+      <c r="V137" s="32" t="e"/>
+      <c r="W137" s="31" t="e"/>
+      <c r="X137" s="32" t="e"/>
+      <c r="Y137" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z137" s="33" t="e"/>
+      <c r="AA137" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB137" s="33" t="e"/>
+      <c r="AC137" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD137" s="33" t="e"/>
+      <c r="AE137" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF137" s="33" t="e"/>
+      <c r="AG137" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH137" s="33" t="e"/>
+      <c r="AI137" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ137" s="33" t="e"/>
+    </row>
+    <row r="138" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A138" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" s="27" t="e"/>
+      <c r="C138" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D138" s="28" t="e"/>
+      <c r="E138" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="27" t="e"/>
+      <c r="G138" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="27" t="e"/>
+      <c r="I138" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J138" s="27" t="e"/>
+      <c r="K138" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L138" s="27" t="e"/>
+      <c r="M138" s="29" t="e"/>
+      <c r="N138" s="30" t="e"/>
+      <c r="O138" s="29" t="e"/>
+      <c r="P138" s="30" t="e"/>
+      <c r="Q138" s="29" t="e"/>
+      <c r="R138" s="30" t="e"/>
+      <c r="S138" s="35" t="e"/>
+      <c r="T138" s="36" t="e"/>
+      <c r="U138" s="31" t="e"/>
+      <c r="V138" s="32" t="e"/>
+      <c r="W138" s="31" t="e"/>
+      <c r="X138" s="32" t="e"/>
+      <c r="Y138" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z138" s="33" t="e"/>
+      <c r="AA138" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB138" s="33" t="e"/>
+      <c r="AC138" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD138" s="33" t="e"/>
+      <c r="AE138" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF138" s="33" t="e"/>
+      <c r="AG138" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH138" s="33" t="e"/>
+      <c r="AI138" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ138" s="33" t="e"/>
+    </row>
+    <row r="139" ht="10" customHeight="true" s="1" customFormat="true"/>
   </sheetData>
-  <mergeCells count="1807">
+  <mergeCells count="1841">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -10106,6 +10271,7 @@
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Y37:Z37"/>
     <mergeCell ref="AA37:AB37"/>
@@ -10244,7 +10410,6 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
     <mergeCell ref="Y46:Z46"/>
     <mergeCell ref="AA46:AB46"/>
@@ -10260,6 +10425,7 @@
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="Y47:Z47"/>
     <mergeCell ref="AA47:AB47"/>
@@ -10291,7 +10457,6 @@
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="Q49:R49"/>
     <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
     <mergeCell ref="W49:X49"/>
     <mergeCell ref="Y49:Z49"/>
     <mergeCell ref="AA49:AB49"/>
@@ -10322,6 +10487,7 @@
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
     <mergeCell ref="W51:X51"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="AA51:AB51"/>
@@ -10353,7 +10519,6 @@
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="Q53:R53"/>
     <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="AA53:AB53"/>
@@ -10429,6 +10594,7 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="Q58:R58"/>
     <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
     <mergeCell ref="W58:X58"/>
     <mergeCell ref="Y58:Z58"/>
     <mergeCell ref="AA58:AB58"/>
@@ -10444,7 +10610,6 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="Q59:R59"/>
     <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="Y59:Z59"/>
     <mergeCell ref="AA59:AB59"/>
@@ -10640,6 +10805,7 @@
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="Q72:R72"/>
     <mergeCell ref="S72:T72"/>
+    <mergeCell ref="U72:V72"/>
     <mergeCell ref="W72:X72"/>
     <mergeCell ref="Y72:Z72"/>
     <mergeCell ref="AA72:AB72"/>
@@ -10655,7 +10821,6 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="Q73:R73"/>
     <mergeCell ref="S73:T73"/>
-    <mergeCell ref="U73:V73"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="Y73:Z73"/>
     <mergeCell ref="AA73:AB73"/>
@@ -10671,7 +10836,6 @@
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="S74:T74"/>
-    <mergeCell ref="U74:V74"/>
     <mergeCell ref="W74:X74"/>
     <mergeCell ref="Y74:Z74"/>
     <mergeCell ref="AA74:AB74"/>
@@ -10990,7 +11154,6 @@
     <mergeCell ref="K95:L95"/>
     <mergeCell ref="Q95:R95"/>
     <mergeCell ref="S95:T95"/>
-    <mergeCell ref="U95:V95"/>
     <mergeCell ref="W95:X95"/>
     <mergeCell ref="Y95:Z95"/>
     <mergeCell ref="AA95:AB95"/>
@@ -11246,7 +11409,6 @@
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="Q112:R112"/>
     <mergeCell ref="S112:T112"/>
-    <mergeCell ref="U112:V112"/>
     <mergeCell ref="W112:X112"/>
     <mergeCell ref="Y112:Z112"/>
     <mergeCell ref="AA112:AB112"/>
@@ -11262,6 +11424,7 @@
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="Q113:R113"/>
     <mergeCell ref="S113:T113"/>
+    <mergeCell ref="U113:V113"/>
     <mergeCell ref="W113:X113"/>
     <mergeCell ref="Y113:Z113"/>
     <mergeCell ref="AA113:AB113"/>
@@ -11455,6 +11618,7 @@
     <mergeCell ref="G126:H126"/>
     <mergeCell ref="I126:J126"/>
     <mergeCell ref="K126:L126"/>
+    <mergeCell ref="Q126:R126"/>
     <mergeCell ref="S126:T126"/>
     <mergeCell ref="W126:X126"/>
     <mergeCell ref="Y126:Z126"/>
@@ -11469,6 +11633,7 @@
     <mergeCell ref="G127:H127"/>
     <mergeCell ref="I127:J127"/>
     <mergeCell ref="K127:L127"/>
+    <mergeCell ref="Q127:R127"/>
     <mergeCell ref="S127:T127"/>
     <mergeCell ref="W127:X127"/>
     <mergeCell ref="Y127:Z127"/>
@@ -11483,6 +11648,7 @@
     <mergeCell ref="G128:H128"/>
     <mergeCell ref="I128:J128"/>
     <mergeCell ref="K128:L128"/>
+    <mergeCell ref="Q128:R128"/>
     <mergeCell ref="S128:T128"/>
     <mergeCell ref="W128:X128"/>
     <mergeCell ref="Y128:Z128"/>
@@ -11497,7 +11663,8 @@
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="I129:J129"/>
     <mergeCell ref="K129:L129"/>
-    <mergeCell ref="U129:V129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="S129:T129"/>
     <mergeCell ref="W129:X129"/>
     <mergeCell ref="Y129:Z129"/>
     <mergeCell ref="AA129:AB129"/>
@@ -11511,6 +11678,8 @@
     <mergeCell ref="G130:H130"/>
     <mergeCell ref="I130:J130"/>
     <mergeCell ref="K130:L130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="W130:X130"/>
     <mergeCell ref="Y130:Z130"/>
     <mergeCell ref="AA130:AB130"/>
     <mergeCell ref="AC130:AD130"/>
@@ -11523,6 +11692,8 @@
     <mergeCell ref="G131:H131"/>
     <mergeCell ref="I131:J131"/>
     <mergeCell ref="K131:L131"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="W131:X131"/>
     <mergeCell ref="Y131:Z131"/>
     <mergeCell ref="AA131:AB131"/>
     <mergeCell ref="AC131:AD131"/>
@@ -11535,6 +11706,8 @@
     <mergeCell ref="G132:H132"/>
     <mergeCell ref="I132:J132"/>
     <mergeCell ref="K132:L132"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
     <mergeCell ref="Y132:Z132"/>
     <mergeCell ref="AA132:AB132"/>
     <mergeCell ref="AC132:AD132"/>
@@ -11547,6 +11720,8 @@
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="I133:J133"/>
     <mergeCell ref="K133:L133"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
     <mergeCell ref="Y133:Z133"/>
     <mergeCell ref="AA133:AB133"/>
     <mergeCell ref="AC133:AD133"/>
@@ -11589,6 +11764,30 @@
     <mergeCell ref="AE136:AF136"/>
     <mergeCell ref="AG136:AH136"/>
     <mergeCell ref="AI136:AJ136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AE137:AF137"/>
+    <mergeCell ref="AG137:AH137"/>
+    <mergeCell ref="AI137:AJ137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="AC138:AD138"/>
+    <mergeCell ref="AE138:AF138"/>
+    <mergeCell ref="AG138:AH138"/>
+    <mergeCell ref="AI138:AJ138"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
